--- a/2. 데이터 정의자료/기타코드Info.xlsx
+++ b/2. 데이터 정의자료/기타코드Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop_GripRoad\NAWriter\NAWriter_Datebase\2. 데이터 정의자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop_GripRoad\DataDiva\DataDiva_Datebase\2. 데이터 정의자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBB81FD-1484-45A1-A1D8-64ADA5EB1B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3456BA1-AF2C-4610-BEA0-C2300EC2145E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-94" yWindow="-94" windowWidth="24874" windowHeight="14897" activeTab="2" xr2:uid="{AB4D51F8-55FF-437D-8E1F-2E657652350D}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{AB4D51F8-55FF-437D-8E1F-2E657652350D}"/>
   </bookViews>
   <sheets>
     <sheet name="Major 1000" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
   <si>
     <t>Major Seq</t>
   </si>
@@ -141,42 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(회원가입) 기관 관리자 승인 보류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Membership) Pending Institutional Administrator Approval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객사 구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기관 구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국내외구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustCompanyType</t>
-  </si>
-  <si>
-    <t>CompanyType</t>
-  </si>
-  <si>
-    <t>CustStatus</t>
-  </si>
-  <si>
-    <t>DomFor</t>
-  </si>
-  <si>
     <t>시스템 정보 타입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,69 +148,6 @@
     <t>SysInfoType</t>
   </si>
   <si>
-    <t>우리사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Our company</t>
-  </si>
-  <si>
-    <t>Customer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신문사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Newspaper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래 예정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래 중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래 만료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transaction scheduled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Trading </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transaction expires</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국내</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oversea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Domestic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해외</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>약관 및 정책</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,125 +180,118 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KeyWordType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>키워드 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벤더사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vendor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormatType</t>
-  </si>
-  <si>
-    <t>기사형태</t>
-  </si>
-  <si>
-    <t>경제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생활/문화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT/과학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피라미드형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>역피라미드형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혼합형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lifestyle/Culture</t>
-  </si>
-  <si>
-    <t>Politics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Economy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Society</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT/Science</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>World</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pyramid type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inverted pyramid type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mixed type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create an article</t>
-  </si>
-  <si>
-    <t>Find attached materials</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Summarize</t>
-  </si>
-  <si>
-    <t>요약하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>첨부자료 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기사만들기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ServiceType</t>
-  </si>
-  <si>
-    <t>서비스 코드</t>
+    <t>API 원천</t>
+  </si>
+  <si>
+    <t>FromAPI</t>
+  </si>
+  <si>
+    <t>SubjectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주제 분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefStatus</t>
+  </si>
+  <si>
+    <t>등록심사 현황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kakao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agriculture_Fisheries_Marine</t>
+  </si>
+  <si>
+    <t>Art_Physical</t>
+  </si>
+  <si>
+    <t>Complex_Studies</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Humanities</t>
+  </si>
+  <si>
+    <t>Medicine</t>
+  </si>
+  <si>
+    <t>Natural_Science</t>
+  </si>
+  <si>
+    <t>Social_Science</t>
+  </si>
+  <si>
+    <t>인문학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사회과학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자연과학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의약학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농수해양</t>
+  </si>
+  <si>
+    <t>예술체육</t>
+  </si>
+  <si>
+    <t>복합학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심사 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록 거절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Under review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refuse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -853,7 +747,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B3" sqref="B3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.640625" defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -900,22 +794,22 @@
       <c r="A4" s="3">
         <v>1002</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
         <v>1003</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>30</v>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -923,43 +817,25 @@
         <v>1004</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3">
         <v>1005</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
         <v>1006</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
         <v>1007</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -970,10 +846,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9A7B92-7B2D-4207-9006-75A031BBCC17}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.640625" defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -1041,11 +917,11 @@
         <v>1001</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1056,11 +932,11 @@
         <v>1001</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1071,239 +947,130 @@
         <v>1001</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="8">
-        <v>1001005</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1001</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
-        <v>22</v>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3">
+        <v>1002001</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
-        <v>1002001</v>
+        <v>1002002</v>
       </c>
       <c r="B9" s="3">
         <v>1002</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3">
+        <v>1003001</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="3">
-        <v>1002002</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1002</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="8"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
-        <v>1003001</v>
+        <v>1003002</v>
       </c>
       <c r="B12" s="3">
         <v>1003</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="3">
-        <v>1003002</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1003</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="3">
+        <v>1004001</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1004</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
-        <v>1004001</v>
+        <v>1004002</v>
       </c>
       <c r="B15" s="3">
         <v>1004</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3">
-        <v>1004002</v>
+        <v>1004003</v>
       </c>
       <c r="B16" s="3">
         <v>1004</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="3">
-        <v>1005001</v>
-      </c>
-      <c r="B18" s="3">
-        <v>1005</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="3">
-        <v>1005002</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1005</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="3">
-        <v>1005003</v>
-      </c>
-      <c r="B20" s="3">
-        <v>1005</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="3">
-        <v>1006001</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1006</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="3">
-        <v>1006002</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1006</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="3">
-        <v>1007001</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1007</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="3">
-        <v>1007002</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1007</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="3">
-        <v>1007003</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1007</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="3">
-        <v>1007004</v>
-      </c>
-      <c r="B28" s="3">
-        <v>1007</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>61</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="3">
+        <v>1004004</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1004</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1316,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BD7350-A139-488C-BA0E-06E487BA6AA7}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.640625" defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -1354,10 +1121,10 @@
         <v>2001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1365,21 +1132,15 @@
         <v>2002</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
         <v>2003</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1523,7 +1284,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.640625" defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -1576,10 +1337,10 @@
         <v>2001</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1590,10 +1351,10 @@
         <v>2001</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1604,10 +1365,10 @@
         <v>2001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1618,10 +1379,10 @@
         <v>2001</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1632,10 +1393,10 @@
         <v>2001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1646,109 +1407,116 @@
         <v>2001</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E9" s="4"/>
+      <c r="A9" s="8">
+        <v>2001007</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="3">
-        <v>2002001</v>
+      <c r="A10" s="8">
+        <v>2001008</v>
       </c>
       <c r="B10" s="3">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="3">
-        <v>2002002</v>
-      </c>
-      <c r="B11" s="3">
-        <v>2002</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
-        <v>2002003</v>
+        <v>2002001</v>
       </c>
       <c r="B12" s="3">
         <v>2002</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E13" s="4"/>
+      <c r="A13" s="3">
+        <v>2002002</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2002</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
-        <v>2003001</v>
+        <v>2002003</v>
       </c>
       <c r="B14" s="3">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="3">
-        <v>2003002</v>
-      </c>
-      <c r="B15" s="3">
-        <v>2003</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3">
-        <v>2003003</v>
+        <v>2003001</v>
       </c>
       <c r="B16" s="3">
         <v>2003</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="3">
+        <v>2003002</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2003</v>
+      </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="3">
+        <v>2003003</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2003</v>
+      </c>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E19" s="4"/>
     </row>
   </sheetData>

--- a/2. 데이터 정의자료/기타코드Info.xlsx
+++ b/2. 데이터 정의자료/기타코드Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop_GripRoad\DataDiva\DataDiva_Datebase\2. 데이터 정의자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3456BA1-AF2C-4610-BEA0-C2300EC2145E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0AF7B4-8FBE-4FF2-B76B-E31CCE2ACB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{AB4D51F8-55FF-437D-8E1F-2E657652350D}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="3" xr2:uid="{AB4D51F8-55FF-437D-8E1F-2E657652350D}"/>
   </bookViews>
   <sheets>
     <sheet name="Major 1000" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
   <si>
     <t>Major Seq</t>
   </si>
@@ -283,15 +283,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Under review</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Approval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Refuse</t>
+    <t>환불 진행중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환불 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환불 거절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Progressing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Completed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refused</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -848,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9A7B92-7B2D-4207-9006-75A031BBCC17}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.640625" defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -1283,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE57972F-C9C3-48D5-9479-0A68E717DDFB}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.640625" defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -1452,7 +1464,7 @@
         <v>2002</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>64</v>
@@ -1466,7 +1478,7 @@
         <v>2002</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>66</v>
@@ -1480,7 +1492,7 @@
         <v>2002</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>65</v>
@@ -1496,7 +1508,12 @@
       <c r="B16" s="3">
         <v>2003</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="C16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3">
@@ -1505,7 +1522,12 @@
       <c r="B17" s="3">
         <v>2003</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="C17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3">
@@ -1514,7 +1536,12 @@
       <c r="B18" s="3">
         <v>2003</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="C18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E19" s="4"/>
